--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_34_5.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_34_5.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999882074490136</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991407552061851</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999935739262839</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999838010924518</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999876971112136</v>
       </c>
       <c r="G2" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.100782871260911e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008020672985388642</v>
       </c>
       <c r="I2" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>3.452744450942566e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>2.387860856898576e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>1.366567650996416e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002024836521823969</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.00331780480327115</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000009759352541</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.00345905062254916</v>
       </c>
       <c r="P2" t="n">
-        <v>129.8498867766124</v>
+        <v>128.8338076743176</v>
       </c>
       <c r="Q2" t="n">
-        <v>194.450305494627</v>
+        <v>193.4342263923322</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_34_5_22</t>
+          <t>model_34_5_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999883134435293</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991282297485365</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999908380758669</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999799010084135</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.99998444754288</v>
       </c>
       <c r="G3" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.090888748481589e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008137592634497447</v>
       </c>
       <c r="I3" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>4.922723284588732e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>2.962767404510704e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>1.727519866484788e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002075745283694516</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003302860500356605</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000009671632941</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003443470109720572</v>
       </c>
       <c r="P3" t="n">
-        <v>129.8498867766124</v>
+        <v>128.8518654707593</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.450305494627</v>
+        <v>193.452284188774</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_34_5_21</t>
+          <t>model_34_5_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999880800017894</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991164573411433</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999876533707225</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999758280869739</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999809754478099</v>
       </c>
       <c r="G4" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.112679510209706e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008247482890023467</v>
       </c>
       <c r="I4" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>6.633872813937093e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>3.563151698946204e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>2.113189678362665e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002126124888752352</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003335685102358593</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000009864826105</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003477692122986077</v>
       </c>
       <c r="P4" t="n">
-        <v>129.8498867766124</v>
+        <v>128.8123087708736</v>
       </c>
       <c r="Q4" t="n">
-        <v>194.450305494627</v>
+        <v>193.4127274888883</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_34_5_20</t>
+          <t>model_34_5_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999875951655491</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9991054572265993</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999841759618511</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999716841747369</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999773842791199</v>
       </c>
       <c r="G5" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.157936845060048e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008350164130799879</v>
       </c>
       <c r="I5" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>8.502292741082522e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>4.174000658714129e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>2.51208582758236e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002175025704599352</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003402847109495294</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000005871948431</v>
+        <v>1.00001026606989</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003547713355811109</v>
       </c>
       <c r="P5" t="n">
-        <v>129.8498867766124</v>
+        <v>128.7325712505027</v>
       </c>
       <c r="Q5" t="n">
-        <v>194.450305494627</v>
+        <v>193.3329899685174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_34_5_19</t>
+          <t>model_34_5_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.999986924275721</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990951912660673</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999805170198329</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999675279798376</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999737411686407</v>
       </c>
       <c r="G6" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.220561465650841e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008445992366129644</v>
       </c>
       <c r="I6" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>1.046825085294321e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>4.786660190490411e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>2.916751513531166e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.000222210280674597</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.00349365348260362</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000010821289058</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003642385544217763</v>
       </c>
       <c r="P6" t="n">
-        <v>129.8498867766124</v>
+        <v>128.6272289886924</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.450305494627</v>
+        <v>193.227647706707</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_34_5_18</t>
+          <t>model_34_5_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.999986125883936</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990856790211791</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999767700454651</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999634335914404</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999701182000553</v>
       </c>
       <c r="G7" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.295087834249277e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008534784996768331</v>
       </c>
       <c r="I7" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>1.24815089523208e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>5.390208902505005e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>3.319179898868543e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002267197141537659</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003598732880124999</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000011482027088</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003751938389235966</v>
       </c>
       <c r="P7" t="n">
-        <v>129.8498867766124</v>
+        <v>128.5086938928873</v>
       </c>
       <c r="Q7" t="n">
-        <v>194.450305494627</v>
+        <v>193.1091126109019</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_34_5_17</t>
+          <t>model_34_5_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999852414569317</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990769061667466</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.999973002278824</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999594424359204</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999665586222201</v>
       </c>
       <c r="G8" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.377645212914598e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008616675742057408</v>
       </c>
       <c r="I8" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>1.45059387888667e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>5.978540184198086e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>3.714567031542378e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002310468330196052</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003711664334115624</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000012213966677</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003869677569023309</v>
       </c>
       <c r="P8" t="n">
-        <v>129.8498867766124</v>
+        <v>128.385099581515</v>
       </c>
       <c r="Q8" t="n">
-        <v>194.450305494627</v>
+        <v>192.9855182995296</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_34_5_16</t>
+          <t>model_34_5_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999843023628373</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.999068795256452</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999692743632059</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999555716441784</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999630887379155</v>
       </c>
       <c r="G9" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.465305524470745e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008692387529379937</v>
       </c>
       <c r="I9" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>1.650895657737859e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>6.549128790769616e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>4.099991278283665e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002351573081037475</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003827930935206048</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000012991147997</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.003990893880027197</v>
       </c>
       <c r="P9" t="n">
-        <v>129.8498867766124</v>
+        <v>128.2617233902355</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.450305494627</v>
+        <v>192.8621421082501</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_34_5_15</t>
+          <t>model_34_5_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999833432577275</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990613178793337</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999656436736469</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999518699520978</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999597541694183</v>
       </c>
       <c r="G10" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.554833776484849e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008762185562589571</v>
       </c>
       <c r="I10" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>1.845973457683006e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>7.094790626124854e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>4.470385054697465e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002389647676304888</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.003943138060586833</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000013784890156</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004111005611247068</v>
       </c>
       <c r="P10" t="n">
-        <v>129.8498867766124</v>
+        <v>128.1431136424081</v>
       </c>
       <c r="Q10" t="n">
-        <v>194.450305494627</v>
+        <v>192.7435323604227</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_34_5_14</t>
+          <t>model_34_5_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999823804483868</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990544359487508</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999621359016255</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999483408490858</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999565641961869</v>
       </c>
       <c r="G11" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.644707802198896e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008826425363763294</v>
       </c>
       <c r="I11" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>2.034446869550664e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>7.615011321089568e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>4.824717626596759e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002425222934836303</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004055499725309934</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000014581697887</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004228150744658143</v>
       </c>
       <c r="P11" t="n">
-        <v>129.8498867766124</v>
+        <v>128.0307254487464</v>
       </c>
       <c r="Q11" t="n">
-        <v>194.450305494627</v>
+        <v>192.631144166761</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_34_5_13</t>
+          <t>model_34_5_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999814308717677</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990481339545104</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999587663434988</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999450024440216</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999535348860193</v>
       </c>
       <c r="G12" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.733346611433091e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008885251713740289</v>
       </c>
       <c r="I12" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>2.21549401650349e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>8.107121468235563e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>5.161204231623641e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002458646187837143</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004163347945383728</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000015367554399</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004340590286737072</v>
       </c>
       <c r="P12" t="n">
-        <v>129.8498867766124</v>
+        <v>127.9257429352763</v>
       </c>
       <c r="Q12" t="n">
-        <v>194.450305494627</v>
+        <v>192.5261616532909</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_34_5_23</t>
+          <t>model_34_5_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999805097274388</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990423743821614</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999555717068032</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999418662458786</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999506808935915</v>
       </c>
       <c r="G13" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.819331391175338e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008939014793458969</v>
       </c>
       <c r="I13" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>2.387142594020322e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>8.569424544112451e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>5.47821707274268e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002489536081412791</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004265362107928631</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000005871948431</v>
+        <v>1.00001612988074</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004446947403379939</v>
       </c>
       <c r="P13" t="n">
-        <v>129.8498867766124</v>
+        <v>127.8289127977271</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.450305494627</v>
+        <v>192.4293315157418</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999796218325195</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990371134502815</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999525382753203</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999389282478592</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999479965119479</v>
       </c>
       <c r="G14" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.902212484481073e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0008988123283275411</v>
       </c>
       <c r="I14" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>2.550129577713615e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>9.002511185731842e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>5.776390061277891e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002518214182573658</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.0043614360989026</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000016864690329</v>
       </c>
       <c r="O14" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004547111463050248</v>
       </c>
       <c r="P14" t="n">
-        <v>129.8498867766124</v>
+        <v>127.7398155814912</v>
       </c>
       <c r="Q14" t="n">
-        <v>194.450305494627</v>
+        <v>192.3402342995058</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_34_5_10</t>
+          <t>model_34_5_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999787761468425</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990323159463109</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999496860845665</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999361843742161</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999454896927876</v>
       </c>
       <c r="G15" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>1.981153530302643e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009032905876980047</v>
       </c>
       <c r="I15" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>2.703378454605541e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>9.406982193994427e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>6.054839946568785e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002544774414618855</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004451015086811819</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000005871948431</v>
+        <v>1.00001756456813</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004640504013928831</v>
       </c>
       <c r="P15" t="n">
-        <v>129.8498867766124</v>
+        <v>127.6584923976843</v>
       </c>
       <c r="Q15" t="n">
-        <v>194.450305494627</v>
+        <v>192.2589111156989</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_34_5_9</t>
+          <t>model_34_5_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999779762596108</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990279346629036</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999470291210054</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999336416645963</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999431565531532</v>
       </c>
       <c r="G16" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>2.055819492278682e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009073803234425843</v>
       </c>
       <c r="I16" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>2.846137728731546e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>9.781799863243657e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>6.313998035773287e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.000256910211071077</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004534114568776006</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000005871948431</v>
+        <v>1.00001822654377</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004727141212879875</v>
       </c>
       <c r="P16" t="n">
-        <v>129.8498867766124</v>
+        <v>127.5845018336317</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.450305494627</v>
+        <v>192.1849205516464</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_34_5_8</t>
+          <t>model_34_5_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.999977224481294</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990239397322238</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999445509073185</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999312853826702</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999409940573631</v>
       </c>
       <c r="G17" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>2.125994698227941e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009111094158750065</v>
       </c>
       <c r="I17" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>2.979292730269184e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>0.000101291364575472</v>
       </c>
       <c r="K17" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>6.554201523225079e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002591162857756575</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004610851004129217</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000018848705136</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004807144477152392</v>
       </c>
       <c r="P17" t="n">
-        <v>129.8498867766124</v>
+        <v>127.5173713576632</v>
       </c>
       <c r="Q17" t="n">
-        <v>194.450305494627</v>
+        <v>192.1177900756778</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_34_5_7</t>
+          <t>model_34_5_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999765203395995</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990203110768625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999422476981018</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999291080787698</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999389921493005</v>
       </c>
       <c r="G18" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>2.191723234590708e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.000914496606375268</v>
       </c>
       <c r="I18" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>3.103044700656547e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>0.0001045009012320359</v>
       </c>
       <c r="K18" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>6.776567411930066e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002611538464925758</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004681584384148927</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000005871948431</v>
+        <v>1.00001943144309</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004880889123597823</v>
       </c>
       <c r="P18" t="n">
-        <v>129.8498867766124</v>
+        <v>127.4564747308959</v>
       </c>
       <c r="Q18" t="n">
-        <v>194.450305494627</v>
+        <v>192.0568934489105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_34_5_6</t>
+          <t>model_34_5_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999758645115635</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990170182774837</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999401135757524</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999271038049131</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999371459418445</v>
       </c>
       <c r="G19" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>2.252941902999275e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009175702900581721</v>
       </c>
       <c r="I19" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>3.21771159408356e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>0.0001074553764486799</v>
       </c>
       <c r="K19" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>6.981638548494511e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002630255970005829</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004746516515297587</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000019974197327</v>
       </c>
       <c r="O19" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.004948585549997523</v>
       </c>
       <c r="P19" t="n">
-        <v>129.8498867766124</v>
+        <v>127.4013771807196</v>
       </c>
       <c r="Q19" t="n">
-        <v>194.450305494627</v>
+        <v>192.0017958987342</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_34_5_5</t>
+          <t>model_34_5_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999752557351449</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990140369810985</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999381370577402</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999252626489775</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999354469164135</v>
       </c>
       <c r="G20" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>2.309768509454074e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009203531993699275</v>
       </c>
       <c r="I20" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>3.323910369579031e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>0.0001101694015624848</v>
       </c>
       <c r="K20" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>7.170361151163551e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002647506265601733</v>
       </c>
       <c r="M20" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004806005107627408</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000020478012294</v>
       </c>
       <c r="O20" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.005010606694861188</v>
       </c>
       <c r="P20" t="n">
-        <v>129.8498867766124</v>
+        <v>127.3515563156313</v>
       </c>
       <c r="Q20" t="n">
-        <v>194.450305494627</v>
+        <v>191.951975033646</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_34_5_4</t>
+          <t>model_34_5_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.999974694813479</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990113230174615</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999363346173985</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999235782726144</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999338927437371</v>
       </c>
       <c r="G21" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>2.36212808480373e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009228865652958554</v>
       </c>
       <c r="I21" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>3.420755911085295e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>0.0001126523198543436</v>
       </c>
       <c r="K21" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>7.342993948259829e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002663055946027227</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.00486017292367641</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000020942223328</v>
       </c>
       <c r="O21" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.005067080546982233</v>
       </c>
       <c r="P21" t="n">
-        <v>129.8498867766124</v>
+        <v>127.3067250427974</v>
       </c>
       <c r="Q21" t="n">
-        <v>194.450305494627</v>
+        <v>191.907143760812</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_34_5_3</t>
+          <t>model_34_5_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999741767903081</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.999008866178144</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999346743207723</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999220387173159</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999324662076375</v>
       </c>
       <c r="G22" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>2.410483273947359e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009251799169559465</v>
       </c>
       <c r="I22" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>3.509964037478272e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>0.0001149217592120614</v>
       </c>
       <c r="K22" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>7.501449260709274e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.000267721360742417</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.00490966727380518</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000021370932159</v>
       </c>
       <c r="O22" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.005118681974063414</v>
       </c>
       <c r="P22" t="n">
-        <v>129.8498867766124</v>
+        <v>127.266196417924</v>
       </c>
       <c r="Q22" t="n">
-        <v>194.450305494627</v>
+        <v>191.8666151359386</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_34_5_2</t>
+          <t>model_34_5_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999737017500325</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990066409351632</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999331531407816</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999206269662322</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999311650884612</v>
       </c>
       <c r="G23" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>2.454826198491964e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009272570836016307</v>
       </c>
       <c r="I23" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>3.591697394490594e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>0.0001170028039629596</v>
       </c>
       <c r="K23" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>7.645973640898224e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002689927800210245</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004954620266470443</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000021764068939</v>
       </c>
       <c r="O23" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.00516554870869196</v>
       </c>
       <c r="P23" t="n">
-        <v>129.8498867766124</v>
+        <v>127.2297390022829</v>
       </c>
       <c r="Q23" t="n">
-        <v>194.450305494627</v>
+        <v>191.8301577202975</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_34_5_1</t>
+          <t>model_34_5_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999732620859145</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990046314486929</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999317446564422</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999193353558605</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999299672552117</v>
       </c>
       <c r="G24" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>2.495866914004943e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009291328510154098</v>
       </c>
       <c r="I24" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>3.667375587765877e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>0.0001189067507813404</v>
       </c>
       <c r="K24" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>7.779025332949959e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.0002701869774817653</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.004995865204351437</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000022127928898</v>
       </c>
       <c r="O24" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.00520854952896734</v>
       </c>
       <c r="P24" t="n">
-        <v>129.8498867766124</v>
+        <v>127.1965786711883</v>
       </c>
       <c r="Q24" t="n">
-        <v>194.450305494627</v>
+        <v>191.7969973892029</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_34_5_11</t>
+          <t>model_34_5_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999728631370657</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990028081346271</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999304754905839</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999181659805065</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999288843631378</v>
       </c>
       <c r="G25" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>2.533107037857687e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009308348346616628</v>
       </c>
       <c r="I25" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>3.735568166438431e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>0.0001206305124774758</v>
       </c>
       <c r="K25" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>7.899309707093006e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.000271244975389536</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.005032998150066904</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000022458093463</v>
       </c>
       <c r="O25" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.005247263301057709</v>
       </c>
       <c r="P25" t="n">
-        <v>129.8498867766124</v>
+        <v>127.1669576749948</v>
       </c>
       <c r="Q25" t="n">
-        <v>194.450305494627</v>
+        <v>191.7673763930094</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999929047289797</v>
+        <v>0.9999724971971267</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990953302480534</v>
+        <v>0.9990011628407585</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999809817001108</v>
+        <v>0.9999293119847598</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999972748086469</v>
+        <v>0.9999170972938664</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999874830179233</v>
+        <v>0.9999278950738367</v>
       </c>
       <c r="G26" t="n">
-        <v>6.623124050979817e-06</v>
+        <v>2.567265924869468e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008444695030295451</v>
+        <v>0.0009323706442679137</v>
       </c>
       <c r="I26" t="n">
-        <v>2.898731675291027e-05</v>
+        <v>3.798083606747534e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>1.825203717370012e-06</v>
+        <v>0.0001222058501900258</v>
       </c>
       <c r="K26" t="n">
-        <v>1.540626018107796e-05</v>
+        <v>8.009196968506193e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.000143259156603521</v>
+        <v>0.000272222820530974</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002573543092893495</v>
+        <v>0.005066819441098594</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000005871948431</v>
+        <v>1.000022760940309</v>
       </c>
       <c r="O26" t="n">
-        <v>0.002683104150326595</v>
+        <v>0.005282524434468343</v>
       </c>
       <c r="P26" t="n">
-        <v>129.8498867766124</v>
+        <v>127.1401679496168</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.450305494627</v>
+        <v>191.7405866676314</v>
       </c>
     </row>
   </sheetData>
